--- a/attribution/Templates/IndustryMTDAttributionTemplate.xlsx
+++ b/attribution/Templates/IndustryMTDAttributionTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Python Scripts\perfAttribution\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Python Scripts\perfAttribution\attribution\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D295DE32-569F-455C-B040-6E585F154426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D1FEF4-BC1E-47BA-A608-4D9E07D8CB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{7E053F2D-6180-4A5C-B9CF-4B2D137CBCD1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Sector</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Attribution</t>
-  </si>
-  <si>
-    <t>MTD as of 3/31/2019</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -234,15 +231,6 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -257,6 +245,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,9 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC41BF4-C790-4C6A-8B05-2C51194CA503}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -603,68 +598,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="20"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -672,347 +665,172 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>2.7230454545454499E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D3" s="7">
-        <f>B3-C3</f>
-        <v>1.2304545454544999E-3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.21568627450980299</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.20202020202020199</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.36660724896018E-2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>5.8732352941176401E-3</v>
-      </c>
-      <c r="I3" s="6">
-        <v>5.2525252525252499E-3</v>
-      </c>
-      <c r="J3" s="6">
-        <v>6.2071004159239295E-4</v>
-      </c>
-      <c r="K3" s="5">
-        <v>3.5531788472964898E-4</v>
-      </c>
-      <c r="L3" s="6">
-        <v>2.6539215686274402E-4</v>
-      </c>
-      <c r="M3" s="7">
-        <v>6.2071004159239295E-4</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>-0.115195466666666</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-0.111999999999999</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" ref="D4:D9" si="0">B4-C4</f>
-        <v>-3.1954666666669934E-3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.14705882352941099</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.14141414141414099</v>
-      </c>
-      <c r="G4" s="7">
-        <v>5.6446821152703304E-3</v>
-      </c>
-      <c r="H4" s="6">
-        <v>-1.6940509803921502E-2</v>
-      </c>
-      <c r="I4" s="6">
-        <v>-1.5838383838383801E-2</v>
-      </c>
-      <c r="J4" s="6">
-        <v>-1.1021259655377199E-3</v>
-      </c>
-      <c r="K4" s="5">
-        <v>-6.3220439691027703E-4</v>
-      </c>
-      <c r="L4" s="6">
-        <v>-4.6992156862745203E-4</v>
-      </c>
-      <c r="M4" s="7">
-        <v>-1.1021259655377199E-3</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>5.9067105263157803E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>4.7067105263157799E-2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.18627450980392099</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.20202020202020199</v>
-      </c>
-      <c r="G5" s="7">
-        <v>-1.5745692216280398E-2</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1.1002696078431301E-2</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2.4242424242424199E-3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>8.5784536541889406E-3</v>
-      </c>
-      <c r="K5" s="5">
-        <v>-1.8894830659536499E-4</v>
-      </c>
-      <c r="L5" s="6">
-        <v>8.7674019607843108E-3</v>
-      </c>
-      <c r="M5" s="7">
-        <v>8.5784536541889493E-3</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>2.2536E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.4640000000000009E-3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.11764705882352899</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="G6" s="7">
-        <v>6.5359477124182896E-3</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2.6512941176470499E-3</v>
-      </c>
-      <c r="I6" s="6">
-        <v>2.7777777777777701E-3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>-1.2648366013071901E-4</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1.6339869281045699E-4</v>
-      </c>
-      <c r="L6" s="6">
-        <v>-2.89882352941176E-4</v>
-      </c>
-      <c r="M6" s="7">
-        <v>-1.2648366013071901E-4</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3.03030303030303E-2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>-3.03030303030303E-2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1.51515151515151E-4</v>
-      </c>
-      <c r="J7" s="6">
-        <v>-1.51515151515151E-4</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-1.51515151515151E-4</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>-1.51515151515151E-4</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>-9.7828399999999996E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-0.121</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>2.3171600000000001E-2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>9.8039215686274495E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>8.0808080808080801E-2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1.72311348781936E-2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>-9.5910196078431292E-3</v>
-      </c>
-      <c r="I8" s="6">
-        <v>-9.7777777777777707E-3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1.8675816993464099E-4</v>
-      </c>
-      <c r="K8" s="5">
-        <v>-2.0849673202614299E-3</v>
-      </c>
-      <c r="L8" s="6">
-        <v>2.27172549019607E-3</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1.8675816993464099E-4</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>1.0007666666666601E-2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13">
+        <f>SUMPRODUCT(B3:B9,E3:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <f>SUMPRODUCT(C3:C9,F3:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <f>B10-C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <f>SUM(E3:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUM(F3:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f>SUM(G3:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <f>SUM(H3:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" ref="I10:J10" si="0">SUM(I3:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
         <f t="shared" si="0"/>
-        <v>1.8007666666666602E-2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.23529411764705799</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.23232323232323199</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2.9708853238264699E-3</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2.3547450980392101E-3</v>
-      </c>
-      <c r="I9" s="6">
-        <v>-1.85858585858585E-3</v>
-      </c>
-      <c r="J9" s="6">
-        <v>4.2133309566250703E-3</v>
-      </c>
-      <c r="K9" s="5">
-        <v>-2.3767082590611699E-5</v>
-      </c>
-      <c r="L9" s="6">
-        <v>4.2370980392156801E-3</v>
-      </c>
-      <c r="M9" s="7">
-        <v>4.2133309566250703E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="16">
-        <f>SUMPRODUCT(B3:B9,E3:E9)</f>
-        <v>-4.6495588235293418E-3</v>
-      </c>
-      <c r="C10" s="17">
-        <f>SUMPRODUCT(C3:C9,F3:F9)</f>
-        <v>-1.6868686868686679E-2</v>
-      </c>
-      <c r="D10" s="18">
-        <f>B10-C10</f>
-        <v>1.2219128045157337E-2</v>
-      </c>
-      <c r="E10" s="16">
-        <f>SUM(E3:E9)</f>
-        <v>0.99999999999999645</v>
-      </c>
-      <c r="F10" s="17">
-        <f>SUM(F3:F9)</f>
-        <v>0.99999999999999889</v>
-      </c>
-      <c r="G10" s="18">
-        <f>SUM(G3:G9)</f>
-        <v>-2.0686577451023425E-16</v>
-      </c>
-      <c r="H10" s="17">
-        <f>SUM(H3:H9)</f>
-        <v>-4.6495588235294285E-3</v>
-      </c>
-      <c r="I10" s="17">
-        <f t="shared" ref="I10:J10" si="1">SUM(I3:I9)</f>
-        <v>-1.6868686868686832E-2</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="1"/>
-        <v>1.2219128045157455E-2</v>
-      </c>
-      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
         <f>SUM(K3:K9)</f>
-        <v>-2.5626856803327284E-3</v>
-      </c>
-      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
         <f>SUM(L3:L9)</f>
-        <v>1.4781813725490176E-2</v>
-      </c>
-      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
         <f>SUM(M3:M9)</f>
-        <v>1.2219128045157464E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
